--- a/multas_orgaos.xlsx
+++ b/multas_orgaos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba21cb8dde5e10a8/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{83DF6C83-34B1-48D4-8619-65140C5F0EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DEC4E24-43CA-4F66-B34F-B5BD9F72D626}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5194E-86C3-4CF3-B04D-1075DF7BD29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -34061,9 +34061,6 @@
     <t>https://www.geproc.pr.gov.br/geproc/ng?route=pub/processo/incluir&amp;_publico=true&amp;_otm=275350</t>
   </si>
   <si>
-    <t>http://www.eindicacao.der.sp.gov.br/der_eindicacao_web/pages/DER_eIndicacao/Menu.aspx</t>
-  </si>
-  <si>
     <t>https://servicos.dnit.gov.br/multas/conta/login</t>
   </si>
   <si>
@@ -34113,6 +34110,9 @@
   </si>
   <si>
     <t>id_orgao</t>
+  </si>
+  <si>
+    <t>http://www.eindicacao.der.sp.gov.br/der_eindicacao_web/</t>
   </si>
 </sst>
 </file>
@@ -34162,10 +34162,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -34489,8 +34489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34500,7 +34500,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11292</v>
+        <v>11291</v>
       </c>
       <c r="B1" t="s">
         <v>5621</v>
@@ -34517,7 +34517,7 @@
         <v>11273</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11279</v>
+        <v>11278</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34536,7 +34536,7 @@
         <v>11271</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11276</v>
+        <v>11275</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34547,7 +34547,7 @@
         <v>11270</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11290</v>
+        <v>11289</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34694,7 +34694,7 @@
         <v>11232</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11283</v>
+        <v>11282</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34761,7 +34761,7 @@
         <v>11240</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11280</v>
+        <v>11279</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34804,7 +34804,7 @@
         <v>11245</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11286</v>
+        <v>11285</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34815,7 +34815,7 @@
         <v>11246</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11286</v>
+        <v>11285</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34866,7 +34866,7 @@
         <v>11252</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11287</v>
+        <v>11286</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34949,7 +34949,7 @@
         <v>11262</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11289</v>
+        <v>11288</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34968,7 +34968,7 @@
         <v>11264</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11275</v>
+        <v>11292</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -64819,7 +64819,7 @@
         <v>6367</v>
       </c>
       <c r="C3786" s="2" t="s">
-        <v>11278</v>
+        <v>11277</v>
       </c>
     </row>
     <row r="3787" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -65262,7 +65262,7 @@
         <v>7063</v>
       </c>
       <c r="C3841" s="2" t="s">
-        <v>11277</v>
+        <v>11276</v>
       </c>
     </row>
     <row r="3842" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -66001,7 +66001,7 @@
         <v>7991</v>
       </c>
       <c r="C3933" s="2" t="s">
-        <v>11291</v>
+        <v>11290</v>
       </c>
     </row>
     <row r="3934" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -67268,7 +67268,7 @@
         <v>9418</v>
       </c>
       <c r="C4091" s="2" t="s">
-        <v>11288</v>
+        <v>11287</v>
       </c>
     </row>
     <row r="4092" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -67327,7 +67327,7 @@
         <v>9453</v>
       </c>
       <c r="C4098" s="2" t="s">
-        <v>11285</v>
+        <v>11284</v>
       </c>
     </row>
     <row r="4099" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -68058,7 +68058,7 @@
         <v>10179</v>
       </c>
       <c r="C4189" s="2" t="s">
-        <v>11282</v>
+        <v>11281</v>
       </c>
     </row>
     <row r="4190" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -68133,7 +68133,7 @@
         <v>10234</v>
       </c>
       <c r="C4198" s="2" t="s">
-        <v>11284</v>
+        <v>11283</v>
       </c>
     </row>
     <row r="4199" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -68272,7 +68272,7 @@
         <v>10480</v>
       </c>
       <c r="C4215" s="2" t="s">
-        <v>11281</v>
+        <v>11280</v>
       </c>
     </row>
     <row r="4216" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -72766,7 +72766,7 @@
         <v>9362</v>
       </c>
       <c r="C4776" s="2" t="s">
-        <v>11289</v>
+        <v>11288</v>
       </c>
     </row>
     <row r="4777" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -79792,26 +79792,25 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C4418" r:id="rId1" xr:uid="{67BA1999-A607-4651-8A02-BD5FD1BD89E8}"/>
-    <hyperlink ref="C55" r:id="rId2" xr:uid="{5707C932-E5BE-444E-AAC0-075878BBFF6B}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{4F648B0C-461A-4280-A8C4-98CF80F206B9}"/>
-    <hyperlink ref="C3786" r:id="rId4" xr:uid="{96F6AF8A-03EB-489C-9E2B-30C3492CE323}"/>
-    <hyperlink ref="C3841" r:id="rId5" xr:uid="{AB0E48C7-34EF-43BE-8EF9-AFE037B21B80}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{CE0D560F-695D-4266-8266-27C73B0840F9}"/>
-    <hyperlink ref="C31" r:id="rId7" xr:uid="{F36CBFA7-8659-4845-94AB-AE54FD5E3472}"/>
-    <hyperlink ref="C4215" r:id="rId8" location="/login" xr:uid="{38BCEEFB-255D-4F63-A78A-D4789AE2AA7F}"/>
-    <hyperlink ref="C4189" r:id="rId9" location="no-back-button" xr:uid="{3CA3800E-F788-45AC-A5D8-624176701E46}"/>
-    <hyperlink ref="C3933" r:id="rId10" xr:uid="{2CE995C2-8133-4983-8646-8EBB628F95F1}"/>
-    <hyperlink ref="C4198" r:id="rId11" xr:uid="{1C4297F6-B5D0-4626-B491-C5DFB74C626F}"/>
-    <hyperlink ref="C4098" r:id="rId12" xr:uid="{46555FA7-9FFE-41F1-84B9-E657DA344FED}"/>
-    <hyperlink ref="C37" r:id="rId13" xr:uid="{9F970401-F4DC-40EE-8DE7-B076BADF170D}"/>
-    <hyperlink ref="C36" r:id="rId14" xr:uid="{51186EF0-C0C4-4987-B4E9-EB376D52C407}"/>
-    <hyperlink ref="C4091" r:id="rId15" xr:uid="{60022851-CBA3-43EE-8BCB-89E5CC59DF02}"/>
-    <hyperlink ref="C53" r:id="rId16" xr:uid="{FB3C9919-2B81-4F29-9624-B23416AB125B}"/>
-    <hyperlink ref="C4776" r:id="rId17" xr:uid="{7B30A458-0DD1-4036-BB33-F823392AFA4D}"/>
-    <hyperlink ref="C5" r:id="rId18" xr:uid="{A2C3DD59-4C44-4CC5-9686-2D75912E0384}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{4F648B0C-461A-4280-A8C4-98CF80F206B9}"/>
+    <hyperlink ref="C3786" r:id="rId3" xr:uid="{96F6AF8A-03EB-489C-9E2B-30C3492CE323}"/>
+    <hyperlink ref="C3841" r:id="rId4" xr:uid="{AB0E48C7-34EF-43BE-8EF9-AFE037B21B80}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{CE0D560F-695D-4266-8266-27C73B0840F9}"/>
+    <hyperlink ref="C31" r:id="rId6" xr:uid="{F36CBFA7-8659-4845-94AB-AE54FD5E3472}"/>
+    <hyperlink ref="C4215" r:id="rId7" location="/login" xr:uid="{38BCEEFB-255D-4F63-A78A-D4789AE2AA7F}"/>
+    <hyperlink ref="C4189" r:id="rId8" location="no-back-button" xr:uid="{3CA3800E-F788-45AC-A5D8-624176701E46}"/>
+    <hyperlink ref="C3933" r:id="rId9" xr:uid="{2CE995C2-8133-4983-8646-8EBB628F95F1}"/>
+    <hyperlink ref="C4198" r:id="rId10" xr:uid="{1C4297F6-B5D0-4626-B491-C5DFB74C626F}"/>
+    <hyperlink ref="C4098" r:id="rId11" xr:uid="{46555FA7-9FFE-41F1-84B9-E657DA344FED}"/>
+    <hyperlink ref="C37" r:id="rId12" xr:uid="{9F970401-F4DC-40EE-8DE7-B076BADF170D}"/>
+    <hyperlink ref="C36" r:id="rId13" xr:uid="{51186EF0-C0C4-4987-B4E9-EB376D52C407}"/>
+    <hyperlink ref="C4091" r:id="rId14" xr:uid="{60022851-CBA3-43EE-8BCB-89E5CC59DF02}"/>
+    <hyperlink ref="C53" r:id="rId15" xr:uid="{FB3C9919-2B81-4F29-9624-B23416AB125B}"/>
+    <hyperlink ref="C4776" r:id="rId16" xr:uid="{7B30A458-0DD1-4036-BB33-F823392AFA4D}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{A2C3DD59-4C44-4CC5-9686-2D75912E0384}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
